--- a/ゲーム制作演習の企画書と仕様書(加藤聡馬).xlsx
+++ b/ゲーム制作演習の企画書と仕様書(加藤聡馬).xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81702\Desktop\科目(2年)\ゲーム制作Ⅲ\03Kato\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81702\Desktop\科目(2年)\ゲーム制作Ⅲ\プロジェクト\03Kato\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{153A8E72-1323-4B5E-8E5C-CC3CEA85A0E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{936BD132-EBB6-42B3-A80B-A08C85868F26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5040" yWindow="10275" windowWidth="18195" windowHeight="14640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8985" yWindow="960" windowWidth="18195" windowHeight="14640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="授業概要" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="79">
   <si>
     <t>ゲーム制作演習</t>
   </si>
@@ -93,24 +93,6 @@
     <t>内容</t>
   </si>
   <si>
-    <t>左右に移動する（Aキー：左　Dキー：右）</t>
-  </si>
-  <si>
-    <t>弾を発射する（SPACEキー：発射）</t>
-  </si>
-  <si>
-    <t>敵の弾に当たると、破壊される</t>
-  </si>
-  <si>
-    <t>3回破壊されるとゲームが終了する</t>
-  </si>
-  <si>
-    <t>横に移動し、画面の端まで来ると、反転し下へ移動する</t>
-  </si>
-  <si>
-    <t>弾を発射する</t>
-  </si>
-  <si>
     <t>プレイヤーの弾が当たると、消滅する</t>
   </si>
   <si>
@@ -120,9 +102,6 @@
     <t>画面の一番下までくるとゲームが終了する</t>
   </si>
   <si>
-    <t>画面上部右に現れ、左へ移動する</t>
-  </si>
-  <si>
     <t>画面の左にくると消滅する</t>
   </si>
   <si>
@@ -132,22 +111,10 @@
     <t>敵が当たると、当たった部分が消えていく</t>
   </si>
   <si>
-    <t>上に移動する</t>
-  </si>
-  <si>
-    <t>敵に当たると消える</t>
-  </si>
-  <si>
     <t>UFOに当たると消える</t>
   </si>
   <si>
     <t>防御壁に当たると消える</t>
-  </si>
-  <si>
-    <t>敵の弾にあたると消える</t>
-  </si>
-  <si>
-    <t>下に移動する</t>
   </si>
   <si>
     <t>プレイヤーに当たると消える</t>
@@ -477,12 +444,304 @@
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
+  <si>
+    <t>画面上部右に現れ、左へ移動する</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>上下左右に移動する（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>W</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>キー：上　</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>キー：左　</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>キー：下　</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>キー：右）</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>ジョウゲ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>シタ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>弾を発射する（左クリック：発射）</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>下に移動する</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>動き</t>
+    <rPh sb="0" eb="1">
+      <t>ウゴ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>走る（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>shift</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>キー）</t>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>ハシ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ジャンプする（spaceキー）</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>移動時にプレイヤーは上下に揺れる</t>
+    <rPh sb="0" eb="3">
+      <t>イドウジ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジョウゲ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ユ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>銃をカメラの子オブジェクトにして画面の向いている方向に銃が向くようにする</t>
+    <rPh sb="0" eb="1">
+      <t>ジュウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ホウコウ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ジュウ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ム</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>動き</t>
+    <rPh sb="0" eb="1">
+      <t>ウゴ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>衝突</t>
+    <rPh sb="0" eb="2">
+      <t>ショウトツ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>敵の弾に当たるとHPが減る</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>タマ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ヘ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>終了</t>
+    <rPh sb="0" eb="2">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>HPが０以下になると消える</t>
+    <rPh sb="4" eb="6">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>爆破以外のどのオブジェクトにもめり込まない</t>
+    <rPh sb="0" eb="2">
+      <t>バクハ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>爆風に当たるとHPが０になる</t>
+    <rPh sb="0" eb="2">
+      <t>バクフウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>設置されたら設置時のプレイヤーの手の位置に生成されて落下</t>
+    <rPh sb="0" eb="2">
+      <t>セッチ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>セッチジ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>テ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ラッカ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>プレイヤーが決められた範囲内で設置可能（４秒間４キー長押し）</t>
+    <rPh sb="6" eb="7">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>ハンイナイ</t>
+    </rPh>
+    <rPh sb="15" eb="19">
+      <t>セッチカノウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ビョウカン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ナガオ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -536,6 +795,17 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -563,7 +833,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -583,6 +853,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -955,7 +1226,7 @@
   <dimension ref="A1:B1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -965,7 +1236,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="B1" s="3"/>
     </row>
@@ -977,12 +1248,12 @@
         <v>18</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B4" s="8" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
@@ -990,10 +1261,10 @@
     </row>
     <row r="6" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
@@ -1001,22 +1272,22 @@
     </row>
     <row r="8" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B8" s="8" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B9" s="8" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B10" s="8" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B11" s="8" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
@@ -1030,17 +1301,17 @@
     </row>
     <row r="14" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B14" s="8" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B15" s="8" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B16" s="8" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
@@ -4011,298 +4282,358 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L41"/>
+  <dimension ref="A1:M46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" customWidth="1"/>
-    <col min="2" max="2" width="55.5703125" customWidth="1"/>
-    <col min="3" max="12" width="4.5703125" customWidth="1"/>
+    <col min="1" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="3" width="63.42578125" customWidth="1"/>
+    <col min="4" max="13" width="4.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="1">
+      <c r="D2" s="1">
         <v>1</v>
       </c>
-      <c r="D2" s="1">
+      <c r="E2" s="1">
         <v>2</v>
       </c>
-      <c r="E2" s="1">
+      <c r="F2" s="1">
         <v>3</v>
       </c>
-      <c r="F2" s="1">
+      <c r="G2" s="1">
         <v>4</v>
       </c>
-      <c r="G2" s="1">
+      <c r="H2" s="1">
         <v>5</v>
       </c>
-      <c r="H2" s="1">
+      <c r="I2" s="1">
         <v>6</v>
       </c>
-      <c r="I2" s="1">
+      <c r="J2" s="1">
         <v>7</v>
       </c>
-      <c r="J2" s="1">
+      <c r="K2" s="1">
         <v>8</v>
       </c>
-      <c r="K2" s="1">
+      <c r="L2" s="1">
         <v>9</v>
       </c>
-      <c r="L2" s="1">
+      <c r="M2" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+    </row>
+    <row r="5" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+    </row>
+    <row r="6" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C8" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="M8" s="5"/>
+    </row>
+    <row r="9" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="M9" s="5"/>
+    </row>
+    <row r="10" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C10" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="M10" s="5"/>
+    </row>
+    <row r="11" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C11" s="7"/>
+      <c r="M11" s="5"/>
+    </row>
+    <row r="13" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+    </row>
+    <row r="14" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+    </row>
+    <row r="15" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C15" s="1"/>
+      <c r="H15" s="5"/>
+    </row>
+    <row r="16" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J16" s="5"/>
+    </row>
+    <row r="17" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M17" s="5"/>
+    </row>
+    <row r="19" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="I19" s="6"/>
+    </row>
+    <row r="20" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I20" s="6"/>
+    </row>
+    <row r="21" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I21" s="6"/>
+    </row>
+    <row r="23" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+    </row>
+    <row r="24" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C24" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+    </row>
+    <row r="26" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+    </row>
+    <row r="27" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" s="10"/>
+      <c r="C27" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-    </row>
-    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-    </row>
-    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="5"/>
-    </row>
-    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="L6" s="5"/>
-    </row>
-    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
+      <c r="H27" s="5"/>
+    </row>
+    <row r="28" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C28" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I28" s="6"/>
+    </row>
+    <row r="29" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C29" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+    </row>
+    <row r="30" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" s="11"/>
+      <c r="C30" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="M30" s="5"/>
+    </row>
+    <row r="31" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="11"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="2"/>
+      <c r="M31" s="5"/>
+    </row>
+    <row r="32" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="11"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="2"/>
+      <c r="M32" s="5"/>
+    </row>
+    <row r="33" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B33" s="11"/>
+      <c r="C33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="M33" s="5"/>
+    </row>
+    <row r="35" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-    </row>
-    <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="2"/>
-      <c r="B9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-    </row>
-    <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G10" s="5"/>
-    </row>
-    <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="1" t="s">
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+    </row>
+    <row r="36" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C36" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H36" s="5"/>
+    </row>
+    <row r="37" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C37" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I11" s="5"/>
-    </row>
-    <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L12" s="5"/>
-    </row>
-    <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B14" s="1" t="s">
+      <c r="K37" s="5"/>
+      <c r="L37" s="5"/>
+    </row>
+    <row r="38" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C38" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H14" s="6"/>
-    </row>
-    <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="1" t="s">
+      <c r="M38" s="5"/>
+    </row>
+    <row r="39" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C39" s="1"/>
+      <c r="M39" s="5"/>
+    </row>
+    <row r="40" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B40" s="12"/>
+      <c r="C40" s="1"/>
+      <c r="M40" s="5"/>
+    </row>
+    <row r="42" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H15" s="6"/>
-    </row>
-    <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H16" s="6"/>
-    </row>
-    <row r="18" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="9"/>
-      <c r="B18" s="1" t="s">
+      <c r="B42" s="1"/>
+      <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-    </row>
-    <row r="19" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="1" t="s">
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+    </row>
+    <row r="43" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-    </row>
-    <row r="21" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B21" s="1" t="s">
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+    </row>
+    <row r="44" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-    </row>
-    <row r="22" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="B22" s="1" t="s">
+      <c r="I44" s="6"/>
+    </row>
+    <row r="45" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G22" s="5"/>
-    </row>
-    <row r="23" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="1" t="s">
+      <c r="J45" s="5"/>
+    </row>
+    <row r="46" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H23" s="6"/>
-    </row>
-    <row r="24" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-    </row>
-    <row r="25" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="L25" s="5"/>
-    </row>
-    <row r="26" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="11"/>
-      <c r="B26" s="2"/>
-      <c r="L26" s="5"/>
-    </row>
-    <row r="27" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="11"/>
-      <c r="B27" s="2"/>
-      <c r="L27" s="5"/>
-    </row>
-    <row r="28" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="B28" s="2"/>
-      <c r="L28" s="5"/>
-    </row>
-    <row r="30" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-    </row>
-    <row r="31" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G31" s="5"/>
-    </row>
-    <row r="32" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
-    </row>
-    <row r="33" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L33" s="5"/>
-    </row>
-    <row r="34" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="1"/>
-      <c r="L34" s="5"/>
-    </row>
-    <row r="35" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="B35" s="1"/>
-      <c r="L35" s="5"/>
-    </row>
-    <row r="37" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-    </row>
-    <row r="38" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-    </row>
-    <row r="39" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H39" s="6"/>
-    </row>
-    <row r="40" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B40" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I40" s="5"/>
-    </row>
-    <row r="41" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B41" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="J41" s="5"/>
-      <c r="K41" s="5"/>
+      <c r="K46" s="5"/>
+      <c r="L46" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>

--- a/ゲーム制作演習の企画書と仕様書(加藤聡馬).xlsx
+++ b/ゲーム制作演習の企画書と仕様書(加藤聡馬).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81702\Desktop\科目(2年)\ゲーム制作Ⅲ\プロジェクト\03Kato\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{936BD132-EBB6-42B3-A80B-A08C85868F26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{943104D1-5BBA-4B66-A053-BDBB415B85A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8985" yWindow="960" windowWidth="18195" windowHeight="14640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="授業概要" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="92">
   <si>
     <t>ゲーム制作演習</t>
   </si>
@@ -91,54 +91,6 @@
   </si>
   <si>
     <t>内容</t>
-  </si>
-  <si>
-    <t>プレイヤーの弾が当たると、消滅する</t>
-  </si>
-  <si>
-    <t>少しずつ移動が速くなっていく</t>
-  </si>
-  <si>
-    <t>画面の一番下までくるとゲームが終了する</t>
-  </si>
-  <si>
-    <t>画面の左にくると消滅する</t>
-  </si>
-  <si>
-    <t>弾に当たると、当たった部分が消えていく</t>
-  </si>
-  <si>
-    <t>敵が当たると、当たった部分が消えていく</t>
-  </si>
-  <si>
-    <t>UFOに当たると消える</t>
-  </si>
-  <si>
-    <t>防御壁に当たると消える</t>
-  </si>
-  <si>
-    <t>プレイヤーに当たると消える</t>
-  </si>
-  <si>
-    <t>プレイヤーの弾に当たると消える</t>
-  </si>
-  <si>
-    <t>ステージ</t>
-  </si>
-  <si>
-    <t>敵を画面上に配置する</t>
-  </si>
-  <si>
-    <t>プレイヤーを画面下に配置する</t>
-  </si>
-  <si>
-    <t>UFOを出現させる</t>
-  </si>
-  <si>
-    <t>全ての敵を撃破するとステージクリアにする</t>
-  </si>
-  <si>
-    <t>プレイヤーと画面の間に防御壁を配置する</t>
   </si>
   <si>
     <t>仕様書</t>
@@ -421,31 +373,6 @@
       </rPr>
       <t>)</t>
     </r>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>プレイヤーの武器</t>
-    <rPh sb="6" eb="8">
-      <t>ブキ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>敵の武器</t>
-    <rPh sb="2" eb="4">
-      <t>ブキ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>弾</t>
-    <rPh sb="0" eb="1">
-      <t>タマ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>画面上部右に現れ、左へ移動する</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -540,10 +467,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>下に移動する</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>動き</t>
     <rPh sb="0" eb="1">
       <t>ウゴ</t>
@@ -601,31 +524,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>銃をカメラの子オブジェクトにして画面の向いている方向に銃が向くようにする</t>
-    <rPh sb="0" eb="1">
-      <t>ジュウ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>ム</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ホウコウ</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>ジュウ</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>ム</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>動き</t>
     <rPh sb="0" eb="1">
       <t>ウゴ</t>
@@ -673,29 +571,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>爆破以外のどのオブジェクトにもめり込まない</t>
-    <rPh sb="0" eb="2">
-      <t>バクハ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>イガイ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>コ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>爆風に当たるとHPが０になる</t>
-    <rPh sb="0" eb="2">
-      <t>バクフウ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ア</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>設置されたら設置時のプレイヤーの手の位置に生成されて落下</t>
     <rPh sb="0" eb="2">
       <t>セッチ</t>
@@ -733,6 +608,604 @@
     </rPh>
     <rPh sb="26" eb="28">
       <t>ナガオ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>画面の向いている方向に銃が向くようにする</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ホウコウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ジュウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ム</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>衝突</t>
+    <rPh sb="0" eb="2">
+      <t>ショウトツ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>プレイヤー以外のどのオブジェクトにもめり込まない</t>
+    <rPh sb="5" eb="7">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>動き</t>
+    <rPh sb="0" eb="1">
+      <t>ウゴ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>敵をマップ上に配置する</t>
+    <rPh sb="5" eb="6">
+      <t>ジョウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>プレイヤーをリスポーン地点に配置する</t>
+    <rPh sb="11" eb="13">
+      <t>チテン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ハイチ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ステータス</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>HPの数値を100に設定</t>
+    <rPh sb="3" eb="5">
+      <t>スウチ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>P</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>の数値を</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>に設定</t>
+    </r>
+    <rPh sb="3" eb="5">
+      <t>スウチ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>終了</t>
+    <rPh sb="0" eb="2">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>P</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>が０以下になると消える</t>
+    </r>
+    <rPh sb="4" eb="6">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>弾が消える</t>
+    <rPh sb="0" eb="1">
+      <t>タマ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>衝突（弾 と 敵）</t>
+  </si>
+  <si>
+    <t>衝突（弾 と 敵）</t>
+    <rPh sb="0" eb="2">
+      <t>ショウトツ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>タマ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>テキ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>（弾</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>と</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>敵以外）</t>
+    </r>
+    <rPh sb="8" eb="9">
+      <t>タマ</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>テキイガイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>（弾</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>と</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>敵以外）</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t xml:space="preserve">       （弾 と 敵以外）</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>弾が消える</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>弾を生成するとき銃のモデルの先端から弾を生成</t>
+    <rPh sb="0" eb="1">
+      <t>タマ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ジュウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>センタン</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>タマ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>セイセイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>壁を作成</t>
+    <rPh sb="0" eb="1">
+      <t>カベ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>床を作成</t>
+    <rPh sb="0" eb="1">
+      <t>ユカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ステージ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>敵のHPを１００減らしてその後に弾が消える</t>
+  </si>
+  <si>
+    <t>敵のHPを２０減らしてその後に弾が消える</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ヘ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>敵のHPを１０減らしてその後に弾が消える</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ヘ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>プレイヤーと敵の武器</t>
+    <rPh sb="6" eb="7">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ブキ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>爆風以外のどのオブジェクトにもめり込まない</t>
+    <rPh sb="0" eb="4">
+      <t>バクフウイガイ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>爆風以外のどのオブジェクトにもめり込まない</t>
+    <rPh sb="0" eb="2">
+      <t>バクフウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>指定した方向に指定した時間だけ直進した後、方向を反転して同じ動きを繰り返す</t>
+    <rPh sb="0" eb="2">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ホウコウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>チョクシン</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ホウコウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ハンテン</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>プレイヤーが指定した距離内まで接近すると、プレイヤーの方向にゆっくり回転する</t>
+    <rPh sb="6" eb="8">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>キョリナイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>セッキン</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ホウコウ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>カイテン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>プレイヤーの方向を向いている時は立ち止まる</t>
+    <rPh sb="6" eb="8">
+      <t>ホウコウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ド</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>爆弾が設置されると、爆弾が設置されている場所まで進む</t>
+    <rPh sb="0" eb="2">
+      <t>バクダン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>セッチ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>バクダン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>セッチ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>バショ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>スス</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>爆風に当たると</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>HP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>が０になる</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>爆風に当たるとHPが０になる</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>障害物を作成</t>
+    <rPh sb="0" eb="3">
+      <t>ショウガイブツ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>爆破成功時に、爆弾を中心に半球状の爆風オブジェクトを生成</t>
+    <rPh sb="0" eb="5">
+      <t>バクハセイコウジ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>バクダン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>チュウシン</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>ハンキュウジョウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>バクフウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>セイセイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>爆弾の座標まで進むと、爆弾を解除する</t>
+    <rPh sb="0" eb="2">
+      <t>バクダン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ザヒョウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>スス</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>バクダン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カイジョ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -741,7 +1214,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -806,6 +1279,19 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -817,7 +1303,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -833,7 +1319,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -843,8 +1329,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -854,6 +1338,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1235,8 +1722,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
-        <v>40</v>
+      <c r="A1" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="B1" s="3"/>
     </row>
@@ -1247,47 +1734,47 @@
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>41</v>
+      <c r="B3" s="6" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B4" s="8" t="s">
-        <v>42</v>
+      <c r="B4" s="6" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B5" s="4"/>
     </row>
     <row r="6" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>46</v>
+      <c r="A6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B7" s="4"/>
     </row>
     <row r="8" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B8" s="8" t="s">
-        <v>44</v>
+      <c r="B8" s="6" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B9" s="8" t="s">
-        <v>49</v>
+      <c r="B9" s="6" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B10" s="8" t="s">
-        <v>50</v>
+      <c r="B10" s="6" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B11" s="8" t="s">
-        <v>51</v>
+      <c r="B11" s="6" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
@@ -1300,18 +1787,18 @@
       <c r="B13" s="4"/>
     </row>
     <row r="14" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B14" s="8" t="s">
-        <v>45</v>
+      <c r="B14" s="6" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B15" s="8" t="s">
-        <v>47</v>
+      <c r="B15" s="6" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B16" s="8" t="s">
-        <v>48</v>
+      <c r="B16" s="6" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
@@ -4282,24 +4769,25 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:M46"/>
+  <dimension ref="A1:M47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="16.42578125" customWidth="1"/>
-    <col min="3" max="3" width="63.42578125" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="3" width="64.5703125" customWidth="1"/>
     <col min="4" max="13" width="4.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" s="7"/>
+      <c r="A1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="5"/>
       <c r="C1" s="3"/>
       <c r="D1" s="2" t="s">
         <v>21</v>
@@ -4341,299 +4829,351 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
+      <c r="A3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="13"/>
     </row>
     <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="13"/>
     </row>
     <row r="5" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="13"/>
     </row>
     <row r="6" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
+      <c r="C6" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="13"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="H7" s="5"/>
+      <c r="B7" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E7" s="13"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C8" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="M8" s="5"/>
+      <c r="C8" s="5" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="9" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="M9" s="5"/>
+      <c r="C9" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="F9" s="13"/>
     </row>
     <row r="10" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C10" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="M10" s="5"/>
+      <c r="B10" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" s="13"/>
     </row>
     <row r="11" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C11" s="7"/>
-      <c r="M11" s="5"/>
+      <c r="B11" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="13"/>
+    </row>
+    <row r="12" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C12" s="5"/>
     </row>
     <row r="13" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
+      <c r="A13" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F13" s="13"/>
     </row>
     <row r="14" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" s="13"/>
+    </row>
+    <row r="15" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F15" s="13"/>
+    </row>
+    <row r="16" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F16" s="13"/>
+    </row>
+    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="H18" s="13"/>
+    </row>
+    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="I19" s="13"/>
+    </row>
+    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="I20" s="13"/>
+    </row>
+    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="H21" s="13"/>
+    </row>
+    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="H22" s="13"/>
+    </row>
+    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="H23" s="13"/>
+    </row>
+    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C24" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="H24" s="13"/>
+    </row>
+    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="H25" s="13"/>
+    </row>
+    <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="H26" s="13"/>
+    </row>
+    <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G29" s="13"/>
+    </row>
+    <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" s="8"/>
+      <c r="C30" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G30" s="13"/>
+    </row>
+    <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="I31" s="13"/>
+    </row>
+    <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G32" s="13"/>
+    </row>
+    <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33" s="9"/>
+      <c r="C33" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G33" s="13"/>
+    </row>
+    <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="9"/>
+      <c r="B34" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="I34" s="13"/>
+    </row>
+    <row r="35" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="9"/>
+      <c r="B35" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G35" s="13"/>
+    </row>
+    <row r="36" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36" s="9"/>
+      <c r="C36" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G36" s="13"/>
+    </row>
+    <row r="37" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C37" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-    </row>
-    <row r="15" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C15" s="1"/>
-      <c r="H15" s="5"/>
-    </row>
-    <row r="16" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C16" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J16" s="5"/>
-    </row>
-    <row r="17" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C17" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M17" s="5"/>
-    </row>
-    <row r="19" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="I19" s="6"/>
-    </row>
-    <row r="20" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C20" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I20" s="6"/>
-    </row>
-    <row r="21" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C21" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I21" s="6"/>
-    </row>
-    <row r="23" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-    </row>
-    <row r="24" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C24" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-    </row>
-    <row r="26" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-    </row>
-    <row r="27" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="B27" s="10"/>
-      <c r="C27" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="H27" s="5"/>
-    </row>
-    <row r="28" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C28" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I28" s="6"/>
-    </row>
-    <row r="29" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C29" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
-    </row>
-    <row r="30" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="B30" s="11"/>
-      <c r="C30" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="M30" s="5"/>
-    </row>
-    <row r="31" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="11"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="2"/>
-      <c r="M31" s="5"/>
-    </row>
-    <row r="32" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="11"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="2"/>
-      <c r="M32" s="5"/>
-    </row>
-    <row r="33" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="B33" s="11"/>
-      <c r="C33" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="M33" s="5"/>
-    </row>
-    <row r="35" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="9" t="s">
+      <c r="I37" s="13"/>
+    </row>
+    <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="7"/>
+      <c r="B38" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G38" s="13"/>
+    </row>
+    <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C39" s="1"/>
+    </row>
+    <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B40" s="10"/>
+      <c r="C40" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D40" s="13"/>
+    </row>
+    <row r="41" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C41" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D41" s="13"/>
+    </row>
+    <row r="42" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C42" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D42" s="13"/>
+    </row>
+    <row r="43" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B35" s="9"/>
-      <c r="C35" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-    </row>
-    <row r="36" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C36" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H36" s="5"/>
-    </row>
-    <row r="37" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C37" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K37" s="5"/>
-      <c r="L37" s="5"/>
-    </row>
-    <row r="38" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C38" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="M38" s="5"/>
-    </row>
-    <row r="39" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C39" s="1"/>
-      <c r="M39" s="5"/>
-    </row>
-    <row r="40" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="12" t="s">
+      <c r="H43" s="13"/>
+    </row>
+    <row r="44" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C44" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B40" s="12"/>
-      <c r="C40" s="1"/>
-      <c r="M40" s="5"/>
-    </row>
-    <row r="42" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-    </row>
-    <row r="43" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C43" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-    </row>
-    <row r="44" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C44" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I44" s="6"/>
-    </row>
-    <row r="45" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C45" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J45" s="5"/>
-    </row>
-    <row r="46" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C46" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K46" s="5"/>
-      <c r="L46" s="5"/>
+      <c r="E44" s="13"/>
+    </row>
+    <row r="45" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C45" s="12"/>
+    </row>
+    <row r="46" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C46" s="1"/>
+    </row>
+    <row r="47" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C47" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>

--- a/ゲーム制作演習の企画書と仕様書(加藤聡馬).xlsx
+++ b/ゲーム制作演習の企画書と仕様書(加藤聡馬).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81702\Desktop\科目(2年)\ゲーム制作Ⅲ\プロジェクト\03Kato\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{943104D1-5BBA-4B66-A053-BDBB415B85A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB6EDE22-EB00-49C2-9B9A-FFA9A7E80B56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24480" yWindow="1635" windowWidth="18195" windowHeight="14640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="授業概要" sheetId="1" r:id="rId1"/>
@@ -1011,19 +1011,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>爆風以外のどのオブジェクトにもめり込まない</t>
-    <rPh sb="0" eb="2">
-      <t>バクフウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>イガイ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>コ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>指定した方向に指定した時間だけ直進した後、方向を反転して同じ動きを繰り返す</t>
     <rPh sb="0" eb="2">
       <t>シテイ</t>
@@ -1206,6 +1193,19 @@
     </rPh>
     <rPh sb="14" eb="16">
       <t>カイジョ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>爆風以外のどのオブジェクトにめり込まない</t>
+    <rPh sb="0" eb="2">
+      <t>バクフウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>コ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -4771,8 +4771,8 @@
   </sheetPr>
   <dimension ref="A1:M47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4869,7 +4869,7 @@
         <v>49</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="E7" s="13"/>
     </row>
@@ -4880,7 +4880,7 @@
     </row>
     <row r="9" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C9" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F9" s="13"/>
     </row>
@@ -4929,7 +4929,7 @@
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F15" s="13"/>
     </row>
@@ -4953,7 +4953,7 @@
         <v>58</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H18" s="13"/>
     </row>
@@ -4961,7 +4961,7 @@
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I19" s="13"/>
     </row>
@@ -4969,7 +4969,7 @@
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I20" s="13"/>
     </row>
@@ -4977,7 +4977,7 @@
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H21" s="13"/>
     </row>
@@ -4985,7 +4985,7 @@
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H22" s="13"/>
     </row>
@@ -5001,7 +5001,7 @@
     </row>
     <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C24" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H24" s="13"/>
     </row>
@@ -5148,7 +5148,7 @@
     </row>
     <row r="42" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C42" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D42" s="13"/>
     </row>

--- a/ゲーム制作演習の企画書と仕様書(加藤聡馬).xlsx
+++ b/ゲーム制作演習の企画書と仕様書(加藤聡馬).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81702\Desktop\科目(2年)\ゲーム制作Ⅲ\プロジェクト\03Kato\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB6EDE22-EB00-49C2-9B9A-FFA9A7E80B56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B3FC367-37F5-4896-9EAB-40280CAFD386}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24480" yWindow="1635" windowWidth="18195" windowHeight="14640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11370" yWindow="900" windowWidth="18195" windowHeight="14640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="授業概要" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="93">
   <si>
     <t>ゲーム制作演習</t>
   </si>
@@ -373,93 +373,6 @@
       </rPr>
       <t>)</t>
     </r>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>上下左右に移動する（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>W</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>キー：上　</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>A</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>キー：左　</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>S</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>キー：下　</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>D</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>キー：右）</t>
-    </r>
-    <rPh sb="0" eb="2">
-      <t>ジョウゲ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ウエ</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>シタ</t>
-    </rPh>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -1206,6 +1119,100 @@
     </rPh>
     <rPh sb="16" eb="17">
       <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>上下左右に移動する（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>W</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>キー：前　</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>キー：左　</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>キー：後ろ　</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>キー：右）</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>ジョウゲ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ウシ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>マウスで視点移動する</t>
+    <rPh sb="4" eb="8">
+      <t>シテンイドウ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -4769,10 +4776,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:M47"/>
+  <dimension ref="A1:M48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4833,10 +4840,10 @@
         <v>36</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>42</v>
+        <v>91</v>
       </c>
       <c r="E3" s="13"/>
     </row>
@@ -4844,83 +4851,83 @@
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5" t="s">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="E4" s="13"/>
     </row>
     <row r="5" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="13"/>
+    </row>
+    <row r="6" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="13"/>
+    </row>
+    <row r="7" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="13"/>
-    </row>
-    <row r="6" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E6" s="13"/>
-    </row>
-    <row r="7" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>91</v>
-      </c>
       <c r="E7" s="13"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="10" t="s">
+        <v>48</v>
+      </c>
       <c r="C8" s="5" t="s">
-        <v>50</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="E8" s="13"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C9" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="F9" s="13"/>
+        <v>49</v>
+      </c>
     </row>
     <row r="10" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="10" t="s">
-        <v>61</v>
-      </c>
       <c r="C10" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E10" s="13"/>
+        <v>86</v>
+      </c>
+      <c r="F10" s="13"/>
     </row>
     <row r="11" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" s="13"/>
+    </row>
+    <row r="12" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E11" s="13"/>
-    </row>
-    <row r="12" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C12" s="5"/>
+      <c r="E12" s="13"/>
     </row>
     <row r="13" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
+      <c r="C13" s="5"/>
+    </row>
+    <row r="14" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="F13" s="13"/>
-    </row>
-    <row r="14" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="7" t="s">
+      <c r="B14" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>53</v>
       </c>
       <c r="F14" s="13"/>
@@ -4929,47 +4936,47 @@
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="7" t="s">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="F15" s="13"/>
     </row>
     <row r="16" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="10" t="s">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="13"/>
+    </row>
+    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="F17" s="13"/>
+    </row>
+    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="F16" s="13"/>
-    </row>
-    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C17" s="1"/>
-    </row>
-    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="H18" s="13"/>
-    </row>
-    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
       <c r="C19" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="I19" s="13"/>
+        <v>81</v>
+      </c>
+      <c r="H19" s="13"/>
     </row>
     <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="I20" s="13"/>
     </row>
@@ -4977,203 +4984,211 @@
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="H21" s="13"/>
+        <v>89</v>
+      </c>
+      <c r="I21" s="13"/>
     </row>
     <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H22" s="13"/>
     </row>
     <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="7"/>
-      <c r="B23" s="7" t="s">
-        <v>56</v>
-      </c>
+      <c r="B23" s="7"/>
       <c r="C23" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H23" s="13"/>
     </row>
     <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C24" s="14" t="s">
-        <v>86</v>
+      <c r="A24" s="7"/>
+      <c r="B24" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>80</v>
       </c>
       <c r="H24" s="13"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>63</v>
+      <c r="C25" s="14" t="s">
+        <v>85</v>
       </c>
       <c r="H25" s="13"/>
     </row>
     <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="H26" s="13"/>
+    </row>
+    <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="C26" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="H26" s="13"/>
-    </row>
-    <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7" t="s">
-        <v>55</v>
-      </c>
+      <c r="H27" s="13"/>
     </row>
     <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="7"/>
+      <c r="A29" s="7" t="s">
+        <v>79</v>
+      </c>
       <c r="B29" s="7"/>
       <c r="C29" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="G29" s="13"/>
+        <v>54</v>
+      </c>
     </row>
     <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G30" s="13"/>
+    </row>
+    <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B30" s="8"/>
-      <c r="C30" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G30" s="13"/>
-    </row>
-    <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="8"/>
+      <c r="C31" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G31" s="13"/>
+    </row>
+    <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="I32" s="13"/>
+    </row>
+    <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="C31" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="I31" s="13"/>
-    </row>
-    <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="G32" s="13"/>
-    </row>
-    <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="9" t="s">
+      <c r="C33" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G33" s="13"/>
+    </row>
+    <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B33" s="9"/>
-      <c r="C33" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G33" s="13"/>
-    </row>
-    <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="9"/>
-      <c r="B34" s="10" t="s">
-        <v>68</v>
-      </c>
+      <c r="B34" s="9"/>
       <c r="C34" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="I34" s="13"/>
+        <v>42</v>
+      </c>
+      <c r="G34" s="13"/>
     </row>
     <row r="35" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="9"/>
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="I35" s="13"/>
+    </row>
+    <row r="36" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="9"/>
+      <c r="B36" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G36" s="13"/>
+    </row>
+    <row r="37" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37" s="9"/>
+      <c r="C37" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G37" s="13"/>
+    </row>
+    <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="I38" s="13"/>
+    </row>
+    <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="7"/>
+      <c r="B39" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="C35" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="G35" s="13"/>
-    </row>
-    <row r="36" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B36" s="9"/>
-      <c r="C36" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G36" s="13"/>
-    </row>
-    <row r="37" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="C37" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="I37" s="13"/>
-    </row>
-    <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="7"/>
-      <c r="B38" s="7" t="s">
+      <c r="C39" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C38" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="G38" s="13"/>
-    </row>
-    <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C39" s="1"/>
+      <c r="G39" s="13"/>
     </row>
     <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="B40" s="10"/>
-      <c r="C40" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D40" s="13"/>
+      <c r="C40" s="1"/>
     </row>
     <row r="41" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C41" s="10" t="s">
+      <c r="A41" s="10" t="s">
         <v>75</v>
+      </c>
+      <c r="B41" s="10"/>
+      <c r="C41" s="7" t="s">
+        <v>73</v>
       </c>
       <c r="D41" s="13"/>
     </row>
     <row r="42" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C42" s="10" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="D42" s="13"/>
     </row>
     <row r="43" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="7" t="s">
+      <c r="C43" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D43" s="13"/>
+    </row>
+    <row r="44" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H44" s="13"/>
+    </row>
+    <row r="45" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C45" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="H43" s="13"/>
-    </row>
-    <row r="44" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C44" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="E44" s="13"/>
-    </row>
-    <row r="45" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C45" s="12"/>
-    </row>
-    <row r="46" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C46" s="1"/>
+      <c r="E45" s="13"/>
+    </row>
+    <row r="46" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C46" s="12"/>
     </row>
     <row r="47" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C47" s="1"/>
+    </row>
+    <row r="48" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C48" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>

--- a/ゲーム制作演習の企画書と仕様書(加藤聡馬).xlsx
+++ b/ゲーム制作演習の企画書と仕様書(加藤聡馬).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81702\Desktop\科目(2年)\ゲーム制作Ⅲ\プロジェクト\03Kato\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B3FC367-37F5-4896-9EAB-40280CAFD386}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78748360-ABD8-4DE3-A460-D0F6F406AFC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11370" yWindow="900" windowWidth="18195" windowHeight="14640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9810" yWindow="1470" windowWidth="18195" windowHeight="14640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="授業概要" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="94">
   <si>
     <t>ゲーム制作演習</t>
   </si>
@@ -1213,6 +1213,22 @@
     <t>マウスで視点移動する</t>
     <rPh sb="4" eb="8">
       <t>シテンイドウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ウィンドウ画面の中心に十字のレティクルを配置する</t>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>チュウシン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジュウジ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ハイチ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -4776,10 +4792,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:M48"/>
+  <dimension ref="A1:M49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4880,63 +4896,63 @@
       <c r="E7" s="13"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="10" t="s">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E8" s="13"/>
+    </row>
+    <row r="9" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C9" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="E8" s="13"/>
-    </row>
-    <row r="9" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C9" s="5" t="s">
-        <v>49</v>
-      </c>
+      <c r="E9" s="13"/>
     </row>
     <row r="10" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C10" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C11" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="F10" s="13"/>
-    </row>
-    <row r="11" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
     </row>
     <row r="12" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" s="13"/>
+    </row>
+    <row r="13" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C13" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E12" s="13"/>
-    </row>
-    <row r="13" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C13" s="5"/>
+      <c r="E13" s="13"/>
     </row>
     <row r="14" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
+      <c r="C14" s="5"/>
+    </row>
+    <row r="15" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B15" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C15" s="5" t="s">
         <v>53</v>
-      </c>
-      <c r="F14" s="13"/>
-    </row>
-    <row r="15" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="F15" s="13"/>
     </row>
@@ -4944,47 +4960,47 @@
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F16" s="13"/>
+    </row>
+    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="F16" s="13"/>
-    </row>
-    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="10" t="s">
+      <c r="F17" s="13"/>
+    </row>
+    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C18" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F17" s="13"/>
-    </row>
-    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C18" s="1"/>
+      <c r="F18" s="13"/>
     </row>
     <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="7" t="s">
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B20" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C20" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="H19" s="13"/>
-    </row>
-    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="I20" s="13"/>
+      <c r="H20" s="13"/>
     </row>
     <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="I21" s="13"/>
     </row>
@@ -4992,203 +5008,211 @@
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="H22" s="13"/>
+        <v>89</v>
+      </c>
+      <c r="I22" s="13"/>
     </row>
     <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H23" s="13"/>
     </row>
     <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="7"/>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="7"/>
+      <c r="C24" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="H24" s="13"/>
+    </row>
+    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C25" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="H24" s="13"/>
-    </row>
-    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C25" s="14" t="s">
+      <c r="H25" s="13"/>
+    </row>
+    <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C26" s="14" t="s">
         <v>85</v>
-      </c>
-      <c r="H25" s="13"/>
-    </row>
-    <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>62</v>
       </c>
       <c r="H26" s="13"/>
     </row>
     <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="H27" s="13"/>
+    </row>
+    <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C28" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="H27" s="13"/>
-    </row>
-    <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="7" t="s">
+      <c r="H28" s="13"/>
+    </row>
+    <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="G30" s="13"/>
-    </row>
-    <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="8" t="s">
+      <c r="G31" s="13"/>
+    </row>
+    <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B31" s="8"/>
-      <c r="C31" s="7" t="s">
+      <c r="B32" s="8"/>
+      <c r="C32" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="G31" s="13"/>
-    </row>
-    <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="10" t="s">
+      <c r="G32" s="13"/>
+    </row>
+    <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C33" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="I32" s="13"/>
-    </row>
-    <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="9" t="s">
+      <c r="I33" s="13"/>
+    </row>
+    <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C34" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="G33" s="13"/>
-    </row>
-    <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="9" t="s">
+      <c r="G34" s="13"/>
+    </row>
+    <row r="35" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B34" s="9"/>
-      <c r="C34" s="5" t="s">
+      <c r="B35" s="9"/>
+      <c r="C35" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="G34" s="13"/>
-    </row>
-    <row r="35" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="9"/>
-      <c r="B35" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="I35" s="13"/>
+      <c r="G35" s="13"/>
     </row>
     <row r="36" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="9"/>
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="I36" s="13"/>
+    </row>
+    <row r="37" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="9"/>
+      <c r="B37" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C37" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="G36" s="13"/>
-    </row>
-    <row r="37" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="9" t="s">
+      <c r="G37" s="13"/>
+    </row>
+    <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B37" s="9"/>
-      <c r="C37" s="5" t="s">
+      <c r="B38" s="9"/>
+      <c r="C38" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="G37" s="13"/>
-    </row>
-    <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="10" t="s">
+      <c r="G38" s="13"/>
+    </row>
+    <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="C38" s="10" t="s">
+      <c r="C39" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="I38" s="13"/>
-    </row>
-    <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="7"/>
-      <c r="B39" s="7" t="s">
+      <c r="I39" s="13"/>
+    </row>
+    <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="7"/>
+      <c r="B40" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C40" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="G39" s="13"/>
-    </row>
-    <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C40" s="1"/>
+      <c r="G40" s="13"/>
     </row>
     <row r="41" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="10" t="s">
+      <c r="C41" s="1"/>
+    </row>
+    <row r="42" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="B41" s="10"/>
-      <c r="C41" s="7" t="s">
+      <c r="B42" s="10"/>
+      <c r="C42" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="D41" s="13"/>
-    </row>
-    <row r="42" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C42" s="10" t="s">
-        <v>74</v>
       </c>
       <c r="D42" s="13"/>
     </row>
     <row r="43" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C43" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D43" s="13"/>
+    </row>
+    <row r="44" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C44" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="D43" s="13"/>
-    </row>
-    <row r="44" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="7" t="s">
+      <c r="D44" s="13"/>
+    </row>
+    <row r="45" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="H44" s="13"/>
-    </row>
-    <row r="45" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C45" s="7" t="s">
+      <c r="H45" s="13"/>
+    </row>
+    <row r="46" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C46" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E45" s="13"/>
-    </row>
-    <row r="46" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C46" s="12"/>
-    </row>
-    <row r="47" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C47" s="1"/>
+      <c r="E46" s="13"/>
+    </row>
+    <row r="47" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C47" s="12"/>
     </row>
     <row r="48" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C48" s="1"/>
+    </row>
+    <row r="49" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C49" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
